--- a/test files/P552 MCA PV AUX LIMITS.xlsx
+++ b/test files/P552 MCA PV AUX LIMITS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Chfile1\ecs_landrive\Automotive_Lighting\LED\P552 MCA Headlamp\P552 MCA Aux\ADVPR\PV Aux\Limits\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Programming Projects\Test Data Analysis\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>B1</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>P552 MCA DV AUX</t>
+  </si>
+  <si>
+    <t>LED Binning</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,35 +301,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -395,13 +371,17 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,6 +416,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,7 +704,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,84 +714,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="29">
         <v>-0.3</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="29">
         <v>0.3</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="9">
         <v>0</v>
       </c>
@@ -817,121 +804,134 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="18">
-        <v>9</v>
-      </c>
-      <c r="G6" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="18">
-        <v>14.1</v>
-      </c>
-      <c r="G7" s="14">
-        <v>12.8</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="18">
-        <v>16</v>
-      </c>
-      <c r="G8" s="14">
-        <v>14.7</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>28</v>
+      <c r="D8" s="28"/>
+      <c r="E8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="17">
+        <v>9</v>
+      </c>
+      <c r="G8" s="13">
+        <v>7.7</v>
+      </c>
+      <c r="H8" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="17">
+        <v>14.1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="H9" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="17">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13">
+        <v>14.7</v>
+      </c>
+      <c r="H10" s="13">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="32" t="s">
+      <c r="J12" s="42"/>
+      <c r="K12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="9">
@@ -1010,7 +1010,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="9">
         <v>14.1</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="9">
         <v>16</v>
       </c>
@@ -1096,7 +1096,7 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="9">
@@ -1134,7 +1134,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="9">
         <v>14.1</v>
       </c>
@@ -1170,7 +1170,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="9">
         <v>16</v>
       </c>
@@ -1220,7 +1220,7 @@
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="36" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="9">
@@ -1258,7 +1258,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="9">
         <v>14.1</v>
       </c>
@@ -1294,7 +1294,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="9">
         <v>16</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="9">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="9">
         <v>14.1</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="9">
         <v>16</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="9">
@@ -1488,7 +1488,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="9">
         <v>14.1</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="9">
         <v>16</v>
       </c>
@@ -1560,9 +1560,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A14:A16"/>
@@ -1574,6 +1576,8 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test files/P552 MCA PV AUX LIMITS.xlsx
+++ b/test files/P552 MCA PV AUX LIMITS.xlsx
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,11 +301,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,7 +720,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,8 +1347,8 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
@@ -1341,34 +1357,34 @@
       <c r="B26" s="9">
         <v>9</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="2">
         <v>1.093</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="2">
         <v>1.335</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="2">
         <v>0.44500000000000001</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="2">
         <v>0.54400000000000004</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="2">
         <v>1.5049999999999999</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>1.839</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="2">
         <v>2.8439999999999999</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="2">
         <v>3.129</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="2">
         <v>1.905</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="2">
         <v>2.3290000000000002</v>
       </c>
     </row>
@@ -1561,11 +1577,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="A30:A32"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A18:A20"/>
@@ -1576,6 +1587,11 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A30:A32"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
   </mergeCells>
